--- a/2022/Realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/2022/Realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\Others\Retail List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Realme\Others\Retail List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All " sheetId="2" r:id="rId1"/>
@@ -2701,7 +2701,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4124,6 +4124,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
